--- a/Assets/06.Table/NorigaeJewel.xlsx
+++ b/Assets/06.Table/NorigaeJewel.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kvdd6\Desktop\svn\Assets\06.Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Assets\06.Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88DA382F-1FBB-49F3-A772-9CF0263EE4E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50DB6BF8-02B8-426A-A106-44E2C1D32214}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{51CAC96F-31B0-419B-A87D-9392A077AFC8}"/>
   </bookViews>
   <sheets>
     <sheet name="NorigaeJewel" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="UnitExchange" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="118">
   <si>
     <t>Score</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -275,13 +276,220 @@
   <si>
     <t>10라</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복붙용(해당 칼럼에 맞게 복붙, 복사 후 ctr+alt+v -&gt; alt+v)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여기만 입력하면 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 환산 표</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커트라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단위 환산</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자리수</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>붙여넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>억</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>간</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>극</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>나</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>불</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>겁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>갈</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>언</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20라</t>
+  </si>
+  <si>
+    <t>50라</t>
+  </si>
+  <si>
+    <t>100라</t>
+  </si>
+  <si>
+    <t>300라</t>
+  </si>
+  <si>
+    <t>500라</t>
+  </si>
+  <si>
+    <t>800라</t>
+  </si>
+  <si>
+    <t>1000라</t>
+  </si>
+  <si>
+    <t>3000라</t>
+  </si>
+  <si>
+    <t>5000라</t>
+  </si>
+  <si>
+    <t>8000라</t>
+  </si>
+  <si>
+    <t>1가</t>
+  </si>
+  <si>
+    <t>2가</t>
+  </si>
+  <si>
+    <t>5가</t>
+  </si>
+  <si>
+    <t>10가</t>
+  </si>
+  <si>
+    <t>20가</t>
+  </si>
+  <si>
+    <t>50가</t>
+  </si>
+  <si>
+    <t>100가</t>
+  </si>
+  <si>
+    <t>300가</t>
+  </si>
+  <si>
+    <t>500가</t>
+  </si>
+  <si>
+    <t>800가</t>
+  </si>
+  <si>
+    <t>1000가</t>
+  </si>
+  <si>
+    <t>3000가</t>
+  </si>
+  <si>
+    <t>5000가</t>
+  </si>
+  <si>
+    <t>8000가</t>
+  </si>
+  <si>
+    <t>1언</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -313,8 +521,24 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,13 +555,52 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -352,7 +615,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,6 +629,54 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="3" borderId="0" xfId="2" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -684,11 +995,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32F4B09B-A0F4-4231-9E44-C7F12C859421}">
-  <dimension ref="A1:J51"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I42" sqref="I42"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K67" sqref="K67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2332,6 +2643,806 @@
         <v>0</v>
       </c>
     </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <v>2.0000000000000001E+93</v>
+      </c>
+      <c r="C52" t="s">
+        <v>93</v>
+      </c>
+      <c r="D52" s="1">
+        <v>48</v>
+      </c>
+      <c r="E52" s="3">
+        <v>83</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+      <c r="G52" s="1">
+        <v>0</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <v>5.0000000000000001E+93</v>
+      </c>
+      <c r="C53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D53" s="1">
+        <v>48</v>
+      </c>
+      <c r="E53" s="1">
+        <v>85</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+      <c r="G53" s="1">
+        <v>0</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54">
+        <v>1E+94</v>
+      </c>
+      <c r="C54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D54" s="1">
+        <v>48</v>
+      </c>
+      <c r="E54" s="3">
+        <v>87</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+      <c r="G54" s="1">
+        <v>0</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <v>3.0000000000000001E+94</v>
+      </c>
+      <c r="C55" t="s">
+        <v>96</v>
+      </c>
+      <c r="D55" s="1">
+        <v>48</v>
+      </c>
+      <c r="E55" s="1">
+        <v>89</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+      <c r="G55" s="1">
+        <v>0</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <v>5.0000000000000001E+94</v>
+      </c>
+      <c r="C56" t="s">
+        <v>97</v>
+      </c>
+      <c r="D56" s="1">
+        <v>48</v>
+      </c>
+      <c r="E56" s="3">
+        <v>91</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+      <c r="G56" s="1">
+        <v>0</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <v>8.0000000000000002E+94</v>
+      </c>
+      <c r="C57" t="s">
+        <v>98</v>
+      </c>
+      <c r="D57" s="1">
+        <v>48</v>
+      </c>
+      <c r="E57" s="1">
+        <v>93</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+      <c r="G57" s="1">
+        <v>0</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58">
+        <v>1E+95</v>
+      </c>
+      <c r="C58" t="s">
+        <v>99</v>
+      </c>
+      <c r="D58" s="1">
+        <v>48</v>
+      </c>
+      <c r="E58" s="3">
+        <v>95</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <v>2.9999999999999999E+95</v>
+      </c>
+      <c r="C59" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="1">
+        <v>48</v>
+      </c>
+      <c r="E59" s="1">
+        <v>97</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <v>5.0000000000000002E+95</v>
+      </c>
+      <c r="C60" t="s">
+        <v>101</v>
+      </c>
+      <c r="D60" s="1">
+        <v>48</v>
+      </c>
+      <c r="E60" s="3">
+        <v>99</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+      <c r="G60" s="1">
+        <v>0</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <v>8.0000000000000002E+95</v>
+      </c>
+      <c r="C61" t="s">
+        <v>102</v>
+      </c>
+      <c r="D61" s="1">
+        <v>48</v>
+      </c>
+      <c r="E61" s="1">
+        <v>101</v>
+      </c>
+      <c r="F61" s="1">
+        <v>0</v>
+      </c>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <v>1E+96</v>
+      </c>
+      <c r="C62" t="s">
+        <v>103</v>
+      </c>
+      <c r="D62" s="1">
+        <v>48</v>
+      </c>
+      <c r="E62" s="3">
+        <v>103</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
+        <v>0</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <v>2.0000000000000001E+96</v>
+      </c>
+      <c r="C63" t="s">
+        <v>104</v>
+      </c>
+      <c r="D63" s="1">
+        <v>48</v>
+      </c>
+      <c r="E63" s="1">
+        <v>106</v>
+      </c>
+      <c r="F63" s="1">
+        <v>0</v>
+      </c>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
+        <v>0</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <v>5.0000000000000004E+96</v>
+      </c>
+      <c r="C64" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="1">
+        <v>48</v>
+      </c>
+      <c r="E64" s="3">
+        <v>109</v>
+      </c>
+      <c r="F64" s="1">
+        <v>0</v>
+      </c>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="1">
+        <v>0</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <v>1.0000000000000001E+97</v>
+      </c>
+      <c r="C65" t="s">
+        <v>106</v>
+      </c>
+      <c r="D65" s="1">
+        <v>48</v>
+      </c>
+      <c r="E65" s="1">
+        <v>112</v>
+      </c>
+      <c r="F65" s="1">
+        <v>0</v>
+      </c>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="1">
+        <v>0</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <v>2.0000000000000001E+97</v>
+      </c>
+      <c r="C66" t="s">
+        <v>107</v>
+      </c>
+      <c r="D66" s="1">
+        <v>48</v>
+      </c>
+      <c r="E66" s="3">
+        <v>115</v>
+      </c>
+      <c r="F66" s="1">
+        <v>0</v>
+      </c>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1">
+        <v>0</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <v>5E+97</v>
+      </c>
+      <c r="C67" t="s">
+        <v>108</v>
+      </c>
+      <c r="D67" s="1">
+        <v>48</v>
+      </c>
+      <c r="E67" s="1">
+        <v>118</v>
+      </c>
+      <c r="F67" s="1">
+        <v>0</v>
+      </c>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="1">
+        <v>0</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <v>1E+98</v>
+      </c>
+      <c r="C68" t="s">
+        <v>109</v>
+      </c>
+      <c r="D68" s="1">
+        <v>48</v>
+      </c>
+      <c r="E68" s="3">
+        <v>121</v>
+      </c>
+      <c r="F68" s="1">
+        <v>0</v>
+      </c>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="1">
+        <v>0</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <v>3.0000000000000001E+98</v>
+      </c>
+      <c r="C69" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="1">
+        <v>48</v>
+      </c>
+      <c r="E69" s="1">
+        <v>124</v>
+      </c>
+      <c r="F69" s="1">
+        <v>0</v>
+      </c>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
+        <v>0</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <v>5.0000000000000004E+98</v>
+      </c>
+      <c r="C70" t="s">
+        <v>111</v>
+      </c>
+      <c r="D70" s="1">
+        <v>48</v>
+      </c>
+      <c r="E70" s="3">
+        <v>127</v>
+      </c>
+      <c r="F70" s="1">
+        <v>0</v>
+      </c>
+      <c r="G70" s="1">
+        <v>0</v>
+      </c>
+      <c r="H70" s="1">
+        <v>0</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <v>8E+98</v>
+      </c>
+      <c r="C71" t="s">
+        <v>112</v>
+      </c>
+      <c r="D71" s="1">
+        <v>48</v>
+      </c>
+      <c r="E71" s="1">
+        <v>130</v>
+      </c>
+      <c r="F71" s="1">
+        <v>0</v>
+      </c>
+      <c r="G71" s="1">
+        <v>0</v>
+      </c>
+      <c r="H71" s="1">
+        <v>0</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <v>1.0000000000000001E+99</v>
+      </c>
+      <c r="C72" t="s">
+        <v>113</v>
+      </c>
+      <c r="D72" s="1">
+        <v>48</v>
+      </c>
+      <c r="E72" s="3">
+        <v>133</v>
+      </c>
+      <c r="F72" s="1">
+        <v>0</v>
+      </c>
+      <c r="G72" s="1">
+        <v>0</v>
+      </c>
+      <c r="H72" s="1">
+        <v>0</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <v>3.0000000000000001E+99</v>
+      </c>
+      <c r="C73" t="s">
+        <v>114</v>
+      </c>
+      <c r="D73" s="1">
+        <v>48</v>
+      </c>
+      <c r="E73" s="1">
+        <v>136</v>
+      </c>
+      <c r="F73" s="1">
+        <v>0</v>
+      </c>
+      <c r="G73" s="1">
+        <v>0</v>
+      </c>
+      <c r="H73" s="1">
+        <v>0</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <v>5.0000000000000001E+99</v>
+      </c>
+      <c r="C74" t="s">
+        <v>115</v>
+      </c>
+      <c r="D74" s="1">
+        <v>48</v>
+      </c>
+      <c r="E74" s="3">
+        <v>139</v>
+      </c>
+      <c r="F74" s="1">
+        <v>0</v>
+      </c>
+      <c r="G74" s="1">
+        <v>0</v>
+      </c>
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <v>8.0000000000000007E+99</v>
+      </c>
+      <c r="C75" t="s">
+        <v>116</v>
+      </c>
+      <c r="D75" s="1">
+        <v>48</v>
+      </c>
+      <c r="E75" s="1">
+        <v>142</v>
+      </c>
+      <c r="F75" s="1">
+        <v>0</v>
+      </c>
+      <c r="G75" s="1">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1">
+        <v>0</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <v>1E+100</v>
+      </c>
+      <c r="C76" t="s">
+        <v>117</v>
+      </c>
+      <c r="D76" s="1">
+        <v>48</v>
+      </c>
+      <c r="E76" s="3">
+        <v>145</v>
+      </c>
+      <c r="F76" s="1">
+        <v>0</v>
+      </c>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
+        <v>0</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2340,11 +3451,1405 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BD296E7-170E-4941-B269-D87C6D836E5A}">
+  <dimension ref="B1:L74"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="D31" sqref="C7:D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="4.5" style="7" customWidth="1"/>
+    <col min="2" max="2" width="8.75" style="18"/>
+    <col min="3" max="3" width="11.875" style="19" customWidth="1"/>
+    <col min="4" max="4" width="16.375" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.375" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.875" style="20" customWidth="1"/>
+    <col min="7" max="7" width="19.25" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.25" style="5" customWidth="1"/>
+    <col min="9" max="9" width="14.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="5" customWidth="1"/>
+    <col min="11" max="16384" width="8.75" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+    </row>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="5"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B3" s="7"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B4" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="2:12" ht="17.25" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>0</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="J6" s="14">
+        <v>4</v>
+      </c>
+      <c r="K6" s="15">
+        <f>POWER(10,J6)</f>
+        <v>10000</v>
+      </c>
+      <c r="L6" s="15" t="str">
+        <f>RIGHT(K6,J6)</f>
+        <v>0000</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="11">
+        <f>E7*G7</f>
+        <v>2.0000000000000001E+93</v>
+      </c>
+      <c r="D7" s="11" t="str">
+        <f t="shared" ref="D7:D27" si="0">E7&amp;F7</f>
+        <v>20라</v>
+      </c>
+      <c r="E7" s="16">
+        <v>20</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G7" s="14" t="str">
+        <f t="shared" ref="G7:G27" si="1">VLOOKUP(F7,I:L,4,FALSE)</f>
+        <v>1E+92</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="14" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" s="14">
+        <v>8</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" ref="K7:K30" si="2">POWER(10,J7)</f>
+        <v>100000000</v>
+      </c>
+      <c r="L7" s="15" t="str">
+        <f t="shared" ref="L7:L30" si="3">RIGHT(K7,J7)</f>
+        <v>00000000</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11">
+        <f>E8*G8</f>
+        <v>5.0000000000000001E+93</v>
+      </c>
+      <c r="D8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>50라</v>
+      </c>
+      <c r="E8" s="16">
+        <v>50</v>
+      </c>
+      <c r="F8" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+92</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="J8" s="14">
+        <v>12</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="2"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="L8" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>000000000000</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B9" s="10">
+        <v>3</v>
+      </c>
+      <c r="C9" s="11">
+        <f t="shared" ref="C9:C27" si="4">E9*G9</f>
+        <v>1E+94</v>
+      </c>
+      <c r="D9" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>100라</v>
+      </c>
+      <c r="E9" s="16">
+        <v>100</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+92</v>
+      </c>
+      <c r="H9" s="7"/>
+      <c r="I9" s="14" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" s="14">
+        <v>16</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="2"/>
+        <v>1E+16</v>
+      </c>
+      <c r="L9" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>0000000000000000</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B10" s="10">
+        <v>4</v>
+      </c>
+      <c r="C10" s="11">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000001E+94</v>
+      </c>
+      <c r="D10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>300라</v>
+      </c>
+      <c r="E10" s="16">
+        <v>300</v>
+      </c>
+      <c r="F10" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G10" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+92</v>
+      </c>
+      <c r="H10" s="7"/>
+      <c r="I10" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="J10" s="14">
+        <v>20</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="2"/>
+        <v>1E+20</v>
+      </c>
+      <c r="L10" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+20</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B11" s="10">
+        <v>5</v>
+      </c>
+      <c r="C11" s="11">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000001E+94</v>
+      </c>
+      <c r="D11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>500라</v>
+      </c>
+      <c r="E11" s="16">
+        <v>500</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+92</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="14">
+        <v>24</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999998E+23</v>
+      </c>
+      <c r="L11" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+24</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B12" s="10">
+        <v>6</v>
+      </c>
+      <c r="C12" s="11">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E+94</v>
+      </c>
+      <c r="D12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>800라</v>
+      </c>
+      <c r="E12" s="16">
+        <v>800</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+92</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J12" s="14">
+        <v>28</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999996E+27</v>
+      </c>
+      <c r="L12" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+28</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B13" s="10">
+        <v>7</v>
+      </c>
+      <c r="C13" s="11">
+        <f t="shared" si="4"/>
+        <v>1E+95</v>
+      </c>
+      <c r="D13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1000라</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+92</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="J13" s="14">
+        <v>32</v>
+      </c>
+      <c r="K13" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+32</v>
+      </c>
+      <c r="L13" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+32</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B14" s="10">
+        <v>8</v>
+      </c>
+      <c r="C14" s="11">
+        <f t="shared" si="4"/>
+        <v>2.9999999999999999E+95</v>
+      </c>
+      <c r="D14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>3000라</v>
+      </c>
+      <c r="E14" s="16">
+        <v>3000</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+92</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="14" t="s">
+        <v>77</v>
+      </c>
+      <c r="J14" s="14">
+        <v>36</v>
+      </c>
+      <c r="K14" s="15">
+        <f t="shared" si="2"/>
+        <v>1E+36</v>
+      </c>
+      <c r="L14" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+36</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B15" s="10">
+        <v>9</v>
+      </c>
+      <c r="C15" s="11">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000002E+95</v>
+      </c>
+      <c r="D15" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>5000라</v>
+      </c>
+      <c r="E15" s="16">
+        <v>5000</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+92</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J15" s="14">
+        <v>40</v>
+      </c>
+      <c r="K15" s="15">
+        <f t="shared" si="2"/>
+        <v>1E+40</v>
+      </c>
+      <c r="L15" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+40</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B16" s="10">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11">
+        <f t="shared" si="4"/>
+        <v>8.0000000000000002E+95</v>
+      </c>
+      <c r="D16" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>8000라</v>
+      </c>
+      <c r="E16" s="16">
+        <v>8000</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+92</v>
+      </c>
+      <c r="H16" s="7"/>
+      <c r="I16" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="14">
+        <v>44</v>
+      </c>
+      <c r="K16" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+44</v>
+      </c>
+      <c r="L16" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B17" s="10">
+        <v>11</v>
+      </c>
+      <c r="C17" s="11">
+        <f t="shared" si="4"/>
+        <v>1E+96</v>
+      </c>
+      <c r="D17" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1가</v>
+      </c>
+      <c r="E17" s="16">
+        <v>1</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+96</v>
+      </c>
+      <c r="H17" s="7"/>
+      <c r="I17" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="J17" s="14">
+        <v>48</v>
+      </c>
+      <c r="K17" s="15">
+        <f t="shared" si="2"/>
+        <v>1E+48</v>
+      </c>
+      <c r="L17" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+48</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B18" s="10">
+        <v>12</v>
+      </c>
+      <c r="C18" s="11">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000001E+96</v>
+      </c>
+      <c r="D18" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>2가</v>
+      </c>
+      <c r="E18" s="16">
+        <v>2</v>
+      </c>
+      <c r="F18" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+96</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J18" s="14">
+        <v>52</v>
+      </c>
+      <c r="K18" s="15">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999999E+51</v>
+      </c>
+      <c r="L18" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+52</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B19" s="10">
+        <v>13</v>
+      </c>
+      <c r="C19" s="11">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000004E+96</v>
+      </c>
+      <c r="D19" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>5가</v>
+      </c>
+      <c r="E19" s="16">
+        <v>5</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+96</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="14" t="s">
+        <v>83</v>
+      </c>
+      <c r="J19" s="14">
+        <v>56</v>
+      </c>
+      <c r="K19" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+56</v>
+      </c>
+      <c r="L19" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+56</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B20" s="10">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000001E+97</v>
+      </c>
+      <c r="D20" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>10가</v>
+      </c>
+      <c r="E20" s="16">
+        <v>10</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G20" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+96</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="J20" s="14">
+        <v>60</v>
+      </c>
+      <c r="K20" s="15">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E+59</v>
+      </c>
+      <c r="L20" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+60</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B21" s="10">
+        <v>15</v>
+      </c>
+      <c r="C21" s="11">
+        <f t="shared" si="4"/>
+        <v>2.0000000000000001E+97</v>
+      </c>
+      <c r="D21" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>20가</v>
+      </c>
+      <c r="E21" s="16">
+        <v>20</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+96</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="J21" s="14">
+        <v>64</v>
+      </c>
+      <c r="K21" s="15">
+        <f t="shared" si="2"/>
+        <v>1E+64</v>
+      </c>
+      <c r="L21" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+64</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B22" s="10">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11">
+        <f t="shared" si="4"/>
+        <v>5E+97</v>
+      </c>
+      <c r="D22" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>50가</v>
+      </c>
+      <c r="E22" s="16">
+        <v>50</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+96</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="14" t="s">
+        <v>86</v>
+      </c>
+      <c r="J22" s="14">
+        <v>68</v>
+      </c>
+      <c r="K22" s="15">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999995E+67</v>
+      </c>
+      <c r="L22" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+68</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B23" s="10">
+        <v>17</v>
+      </c>
+      <c r="C23" s="11">
+        <f t="shared" si="4"/>
+        <v>1E+98</v>
+      </c>
+      <c r="D23" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>100가</v>
+      </c>
+      <c r="E23" s="16">
+        <v>100</v>
+      </c>
+      <c r="F23" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G23" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+96</v>
+      </c>
+      <c r="H23" s="7"/>
+      <c r="I23" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="J23" s="14">
+        <v>72</v>
+      </c>
+      <c r="K23" s="15">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999994E+71</v>
+      </c>
+      <c r="L23" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B24" s="10">
+        <v>18</v>
+      </c>
+      <c r="C24" s="11">
+        <f t="shared" si="4"/>
+        <v>3.0000000000000001E+98</v>
+      </c>
+      <c r="D24" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>300가</v>
+      </c>
+      <c r="E24" s="16">
+        <v>300</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G24" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+96</v>
+      </c>
+      <c r="I24" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="14">
+        <v>76</v>
+      </c>
+      <c r="K24" s="15">
+        <f t="shared" si="2"/>
+        <v>1E+76</v>
+      </c>
+      <c r="L24" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+76</v>
+      </c>
+    </row>
+    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B25" s="10">
+        <v>19</v>
+      </c>
+      <c r="C25" s="11">
+        <f t="shared" si="4"/>
+        <v>5.0000000000000004E+98</v>
+      </c>
+      <c r="D25" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>500가</v>
+      </c>
+      <c r="E25" s="16">
+        <v>500</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+96</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="14">
+        <v>80</v>
+      </c>
+      <c r="K25" s="15">
+        <f t="shared" si="2"/>
+        <v>1E+80</v>
+      </c>
+      <c r="L25" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+80</v>
+      </c>
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B26" s="10">
+        <v>20</v>
+      </c>
+      <c r="C26" s="11">
+        <f t="shared" si="4"/>
+        <v>8E+98</v>
+      </c>
+      <c r="D26" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>800가</v>
+      </c>
+      <c r="E26" s="16">
+        <v>800</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+96</v>
+      </c>
+      <c r="I26" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="J26" s="14">
+        <v>84</v>
+      </c>
+      <c r="K26" s="15">
+        <f t="shared" si="2"/>
+        <v>1.0000000000000001E+84</v>
+      </c>
+      <c r="L26" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+84</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B27" s="10">
+        <v>21</v>
+      </c>
+      <c r="C27" s="11">
+        <f t="shared" si="4"/>
+        <v>1.0000000000000001E+99</v>
+      </c>
+      <c r="D27" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>1000가</v>
+      </c>
+      <c r="E27" s="16">
+        <v>1000</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G27" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>1E+96</v>
+      </c>
+      <c r="I27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="J27" s="14">
+        <v>88</v>
+      </c>
+      <c r="K27" s="15">
+        <f t="shared" si="2"/>
+        <v>9.9999999999999996E+87</v>
+      </c>
+      <c r="L27" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+88</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B28" s="10">
+        <v>22</v>
+      </c>
+      <c r="C28" s="11">
+        <f t="shared" ref="C28:C31" si="5">E28*G28</f>
+        <v>3.0000000000000001E+99</v>
+      </c>
+      <c r="D28" s="11" t="str">
+        <f t="shared" ref="D28:D31" si="6">E28&amp;F28</f>
+        <v>3000가</v>
+      </c>
+      <c r="E28" s="16">
+        <v>3000</v>
+      </c>
+      <c r="F28" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="14" t="str">
+        <f t="shared" ref="G28:G31" si="7">VLOOKUP(F28,I:L,4,FALSE)</f>
+        <v>1E+96</v>
+      </c>
+      <c r="I28" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="J28" s="14">
+        <v>92</v>
+      </c>
+      <c r="K28" s="15">
+        <f t="shared" si="2"/>
+        <v>1E+92</v>
+      </c>
+      <c r="L28" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+92</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B29" s="10">
+        <v>23</v>
+      </c>
+      <c r="C29" s="11">
+        <f t="shared" si="5"/>
+        <v>5.0000000000000001E+99</v>
+      </c>
+      <c r="D29" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>5000가</v>
+      </c>
+      <c r="E29" s="16">
+        <v>5000</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G29" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v>1E+96</v>
+      </c>
+      <c r="I29" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="J29" s="14">
+        <v>96</v>
+      </c>
+      <c r="K29" s="15">
+        <f t="shared" si="2"/>
+        <v>1E+96</v>
+      </c>
+      <c r="L29" s="15" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+96</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B30" s="10">
+        <v>24</v>
+      </c>
+      <c r="C30" s="11">
+        <f t="shared" si="5"/>
+        <v>8.0000000000000007E+99</v>
+      </c>
+      <c r="D30" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>8000가</v>
+      </c>
+      <c r="E30" s="16">
+        <v>8000</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v>1E+96</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="J30" s="17">
+        <v>100</v>
+      </c>
+      <c r="K30" s="14">
+        <f t="shared" si="2"/>
+        <v>1E+100</v>
+      </c>
+      <c r="L30" s="14" t="str">
+        <f t="shared" si="3"/>
+        <v>1E+100</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B31" s="10">
+        <v>25</v>
+      </c>
+      <c r="C31" s="11">
+        <f t="shared" si="5"/>
+        <v>1E+100</v>
+      </c>
+      <c r="D31" s="11" t="str">
+        <f t="shared" si="6"/>
+        <v>1언</v>
+      </c>
+      <c r="E31" s="16">
+        <v>1</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>92</v>
+      </c>
+      <c r="G31" s="14" t="str">
+        <f t="shared" si="7"/>
+        <v>1E+100</v>
+      </c>
+    </row>
+    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B32" s="7"/>
+      <c r="C32" s="7"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="7"/>
+      <c r="G32" s="7"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="7"/>
+      <c r="G33" s="7"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="7"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="7"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="7"/>
+      <c r="G37" s="7"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="7"/>
+      <c r="G38" s="7"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="7"/>
+      <c r="G39" s="7"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="7"/>
+      <c r="G40" s="7"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="7"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="7"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="7"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="7"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="7"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="7"/>
+    </row>
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="7"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="7"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="7"/>
+    </row>
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
+      <c r="F47" s="7"/>
+      <c r="G47" s="7"/>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="7"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="7"/>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="7"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="7"/>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B51" s="7"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B52" s="7"/>
+      <c r="C52" s="7"/>
+      <c r="D52" s="7"/>
+      <c r="E52" s="7"/>
+      <c r="F52" s="7"/>
+      <c r="G52" s="7"/>
+    </row>
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B53" s="7"/>
+      <c r="C53" s="7"/>
+      <c r="D53" s="7"/>
+      <c r="E53" s="7"/>
+      <c r="F53" s="7"/>
+      <c r="G53" s="7"/>
+    </row>
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B54" s="7"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="7"/>
+      <c r="F54" s="7"/>
+      <c r="G54" s="7"/>
+    </row>
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B55" s="7"/>
+      <c r="C55" s="7"/>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="7"/>
+      <c r="G55" s="7"/>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B56" s="7"/>
+      <c r="C56" s="7"/>
+      <c r="D56" s="7"/>
+      <c r="E56" s="7"/>
+      <c r="F56" s="7"/>
+      <c r="G56" s="7"/>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B57" s="7"/>
+      <c r="C57" s="7"/>
+      <c r="D57" s="7"/>
+      <c r="E57" s="7"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="7"/>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B58" s="7"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
+      <c r="G58" s="7"/>
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B59" s="7"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+    </row>
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B61" s="7"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+    </row>
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+    </row>
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+    </row>
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B67" s="7"/>
+      <c r="C67" s="7"/>
+      <c r="D67" s="7"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+    </row>
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B68" s="7"/>
+      <c r="C68" s="7"/>
+      <c r="D68" s="7"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B69" s="7"/>
+      <c r="C69" s="7"/>
+      <c r="D69" s="7"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B70" s="7"/>
+      <c r="C70" s="7"/>
+      <c r="D70" s="7"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B71" s="7"/>
+      <c r="C71" s="7"/>
+      <c r="D71" s="7"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B72" s="7"/>
+      <c r="C72" s="7"/>
+      <c r="D72" s="7"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+    </row>
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B73" s="7"/>
+      <c r="C73" s="7"/>
+      <c r="D73" s="7"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7"/>
+    </row>
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B74" s="7"/>
+      <c r="C74" s="7"/>
+      <c r="D74" s="7"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDE5F40D-1684-4728-AC3D-71132164ECDA}">
   <dimension ref="B1:B195"/>
   <sheetViews>
-    <sheetView topLeftCell="A173" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B195"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B195" sqref="B195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
